--- a/Resumo_Equipe_2025-07-10.xlsx
+++ b/Resumo_Equipe_2025-07-10.xlsx
@@ -607,14 +607,14 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>Drenagem</t>
+          <t>Coordenação</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>teste3</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -624,11 +624,11 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Drenagem</t>
+          <t>Coordenação</t>
         </is>
       </c>
       <c r="D13" s="8" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="E13" s="9">
         <f>IFERROR(VLOOKUP(B13,TabelaPrecos,2,FALSE)*D13,"-")</f>
@@ -636,30 +636,47 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Estruturas</t>
-        </is>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>teste2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Eng. Sênior</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>Coordenação</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="E14" s="9">
+        <f>IFERROR(VLOOKUP(B14,TabelaPrecos,2,FALSE)*D14,"-")</f>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>tets1</t>
+          <t>teste1</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>Estagiário/Projetista</t>
+          <t>Eng. Pleno</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Estruturas</t>
+          <t>Coordenação</t>
         </is>
       </c>
       <c r="D15" s="8" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="E15" s="9">
         <f>IFERROR(VLOOKUP(B15,TabelaPrecos,2,FALSE)*D15,"-")</f>
@@ -667,71 +684,79 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="10" t="inlineStr">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Eng. Júnior</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>Coordenação</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="E16" s="9">
+        <f>IFERROR(VLOOKUP(B16,TabelaPrecos,2,FALSE)*D16,"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>Total Geral</t>
         </is>
       </c>
-      <c r="E16" s="11">
-        <f>SUM(E12:E15)</f>
+      <c r="E17" s="11">
+        <f>SUM(E12:E16)</f>
         <v/>
       </c>
     </row>
-    <row r="17"/>
     <row r="18"/>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
+    <row r="19"/>
+    <row r="20">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Resumo Financeiro por Disciplina</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="5" t="inlineStr">
+    <row r="21">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Disciplina</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Total (R$)</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>HH</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Subtotal (R$)</t>
         </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="C21" s="9">
-        <f>SUMIF(C$12:C$15, B21, E$12:E$15)</f>
-        <v/>
-      </c>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="9">
-        <f>C21-D21</f>
-        <v/>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>Estruturas</t>
+          <t>Coordenação</t>
         </is>
       </c>
       <c r="C22" s="9">
-        <f>SUMIF(C$12:C$15, B22, E$12:E$15)</f>
+        <f>SUMIF(C$12:C$16, B22, E$12:E$16)</f>
         <v/>
       </c>
       <c r="D22" s="4" t="n"/>
@@ -747,14 +772,13 @@
         </is>
       </c>
       <c r="E23" s="13">
-        <f>SUM(E21:E22)</f>
+        <f>SUM(E22:E22)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
